--- a/Specifications/Subtraction/31.xlsx
+++ b/Specifications/Subtraction/31.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderson1/Documents/personal projects/exercise sheets/Subtraction/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27022"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21520" yWindow="1980" windowWidth="27760" windowHeight="16380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Operand 1" sheetId="1" r:id="rId1"/>
@@ -20,18 +15,18 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Adjusting optional</t>
   </si>
@@ -43,9 +38,6 @@
   </si>
   <si>
     <t>Adjusting</t>
-  </si>
-  <si>
-    <t></t>
   </si>
   <si>
     <t>Digit multiple of</t>
@@ -180,7 +172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -215,7 +207,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -392,7 +384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -406,16 +398,16 @@
       <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -424,7 +416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -435,7 +427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -446,7 +438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -457,7 +449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>1000</v>
       </c>
@@ -470,27 +462,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -499,7 +496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -510,7 +507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -521,7 +518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -532,7 +529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>1000</v>
       </c>
@@ -543,13 +540,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -561,33 +558,38 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -599,15 +601,15 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -615,6 +617,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -622,17 +629,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,12 +647,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>